--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value1022.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value1022.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.118468306173278</v>
+        <v>1.382680535316467</v>
       </c>
       <c r="B1">
-        <v>3.410830095557194</v>
+        <v>1.790967464447021</v>
       </c>
       <c r="C1">
-        <v>3.44167689934567</v>
+        <v>-1</v>
       </c>
       <c r="D1">
-        <v>2.272299248386118</v>
+        <v>1.837021470069885</v>
       </c>
       <c r="E1">
-        <v>1.112740522493288</v>
+        <v>0.7468041181564331</v>
       </c>
     </row>
   </sheetData>
